--- a/02_월별_인보이스_정합성_검증_개선/Source/Config.xlsx
+++ b/02_월별_인보이스_정합성_검증_개선/Source/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\01_월별_인보이스_정합성_검증\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\02_월별_인보이스_정합성_검증_개선\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C7A3F-47BC-41CE-96D2-C0A0E51740F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B64CDCD-39DD-4032-9858-CAB35E68E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-11535" windowWidth="17025" windowHeight="11385" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-6765" yWindow="-11655" windowWidth="17025" windowHeight="11385" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,31 +632,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경없음 또는 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code_MaxRankingNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>추출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 최대 순위 번호</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -836,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Full_Invoice_Report.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Folder_OutputName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,10 +856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검증 NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code_CheckNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,51 +864,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검증 YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code_MsgNotEqual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 불일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 다운로드 실패</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 메시지 : 데이터 불일치</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력 메시지 : 다운로드 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1606,6 +1530,634 @@
         <charset val="129"/>
       </rPr>
       <t>확장자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full_Invoice_Report_ADVANCED.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACME Invoice report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_UseDownloadedFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하락</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">추출할 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> YES</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불일치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">출력 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불일치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">엑셀 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (TRUE / FALSE) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본값은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FALSE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정합성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,13 +2307,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2135,7 +2687,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2187,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2198,7 +2750,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2214,90 +2766,90 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2308,7 +2860,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2319,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2333,15 +2885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -2374,8 +2926,8 @@
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="16.5">
@@ -2385,66 +2937,76 @@
       <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
+      <c r="C4" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1"/>
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="31.5">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3" s="4" customFormat="1"/>
     <row r="13" spans="1:3" s="4" customFormat="1"/>
@@ -2463,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2564,7 +3126,7 @@
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2576,7 +3138,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
@@ -2597,7 +3159,7 @@
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2606,24 +3168,24 @@
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="67.5">
       <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
